--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -14,9 +14,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="45"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -28,7 +39,7 @@
       <i/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38,6 +49,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,9 +68,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -65,212 +83,120 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Organismo</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>AVANCE DE INDICADORES (SF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Denominación del Programa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de elaboración:</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
           <t>Dependencia</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Nombre del indicador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Método de Cálculo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Frecuencia Medición</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Meta Programada</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Trimestre</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Meta Alcanzada</t>
         </is>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="C2" s="0">
-        <v>5977</v>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Prueba resumen</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1 ACEstrategico</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H2" s="0">
-        <v>100</v>
-      </c>
-      <c r="I2" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J2" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="C3" s="0">
-        <v>5977</v>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Prueba resumen</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1 ACEstrategico</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H3" s="0">
-        <v>100</v>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>2022-08-01</t>
-        </is>
-      </c>
-      <c r="J3" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Admin </t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="C4" s="0">
-        <v>5977</v>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Prueba resumen</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Indicador 1 ACEstrategico</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H4" s="0">
-        <v>100</v>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
-      </c>
-      <c r="J4" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="C5" s="0">
-        <v>5979</v>
+        <v>5512</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="H5" s="0">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
@@ -278,48 +204,48 @@
         </is>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="C6" s="0">
-        <v>5979</v>
+        <v>5512</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Resumen</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="H6" s="0">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -356,7 +282,7 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="J7" s="0">
@@ -371,20 +297,20 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Estrategia</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="C8" s="0">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Resumen</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -393,15 +319,15 @@
         </is>
       </c>
       <c r="H8" s="0">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -438,7 +364,7 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="J9" s="0">
@@ -453,20 +379,20 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="C10" s="0">
-        <v>5977</v>
+        <v>5979</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>Resumen</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -475,15 +401,15 @@
         </is>
       </c>
       <c r="H10" s="0">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="J10" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -494,20 +420,20 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="C11" s="0">
-        <v>5977</v>
+        <v>5979</v>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>Resumen</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -516,15 +442,15 @@
         </is>
       </c>
       <c r="H11" s="0">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="J11" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -561,7 +487,7 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="J12" s="0">
@@ -576,20 +502,20 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Estrategia</t>
         </is>
       </c>
       <c r="C13" s="0">
-        <v>5977</v>
+        <v>5979</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Prueba resumen</t>
+          <t>Resumen</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1 ACEstrategico</t>
+          <t>Indicador 1</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -598,15 +524,15 @@
         </is>
       </c>
       <c r="H13" s="0">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="J13" s="0">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -643,7 +569,7 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="J14" s="0">
@@ -688,7 +614,7 @@
         </is>
       </c>
       <c r="J15" s="0">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -725,7 +651,7 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="J16" s="0">
@@ -766,7 +692,7 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="J17" s="0">
@@ -807,11 +733,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="J18" s="0">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -848,7 +774,7 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="J19" s="0">
@@ -893,7 +819,7 @@
         </is>
       </c>
       <c r="J20" s="0">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -930,7 +856,7 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="J21" s="0">
@@ -971,7 +897,7 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="J22" s="0">
@@ -1063,7 +989,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
@@ -1072,21 +998,16 @@
         </is>
       </c>
       <c r="C25" s="0">
-        <v>5996</v>
+        <v>5977</v>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Prueba resumen</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Indicador 1</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>A+B+C+D</t>
+          <t>Indicador 1 ACEstrategico</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
@@ -1095,61 +1016,563 @@
         </is>
       </c>
       <c r="H25" s="0">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="J25" s="0">
-        <v>4000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="0" t="inlineStr">
         <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C26" s="0">
+        <v>5977</v>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H26" s="0">
+        <v>100</v>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="J26" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C27" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H27" s="0">
+        <v>100</v>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="J27" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C28" s="0">
+        <v>5977</v>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H28" s="0">
+        <v>100</v>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="J28" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C29" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H29" s="0">
+        <v>100</v>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J29" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C30" s="0">
+        <v>5977</v>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H30" s="0">
+        <v>100</v>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="J30" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C31" s="0">
+        <v>5977</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Prueba resumen</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1 ACEstrategico</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H31" s="0">
+        <v>100</v>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="J31" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C32" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H32" s="0">
+        <v>100</v>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J32" s="0">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C33" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H33" s="0">
+        <v>100</v>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="J33" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C34" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H34" s="0">
+        <v>100</v>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="J34" s="0">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C35" s="0">
+        <v>5512</v>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H35" s="0">
+        <v>100</v>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J35" s="0">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C36" s="0">
+        <v>5996</v>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C+D</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H36" s="0">
+        <v>5000</v>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J36" s="0">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="C26" s="0">
+      <c r="C37" s="0">
         <v>5529</v>
       </c>
-      <c r="D26" s="0" t="inlineStr">
+      <c r="D37" s="0" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="E37" s="0" t="inlineStr">
         <is>
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
-      <c r="F26" s="0" t="inlineStr">
+      <c r="F37" s="0" t="inlineStr">
         <is>
           <t>(A*B)/C</t>
         </is>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G37" s="0" t="inlineStr">
         <is>
           <t>Semanal</t>
         </is>
       </c>
-      <c r="H26" s="0">
-        <v>100</v>
-      </c>
-      <c r="I26" s="0" t="inlineStr">
+      <c r="H37" s="0">
+        <v>100</v>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="J26" s="0">
+      <c r="J37" s="0">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="C38" s="0">
+        <v>5999</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba Reportes 001</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>(A+B)/C</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H38" s="0">
+        <v>5000</v>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J38" s="0">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -27,7 +27,7 @@
       <i/>
     </font>
     <font>
-      <sz val="45"/>
+      <sz val="25"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -83,7 +83,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Organismo</t>
@@ -94,7 +94,7 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AVANCE DE INDICADORES (SF)</t>
         </is>
@@ -114,7 +114,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Dependencia</t>
@@ -157,16 +157,31 @@
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>Trimestre</t>
+          <t>Trimestre 1</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
+          <t>Trimestre 2</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>Trimestre 3</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Trimestre 4</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
           <t>Meta Alcanzada</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -200,14 +215,14 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J5" s="0">
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M5" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -241,14 +256,14 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J6" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M6" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -280,16 +295,16 @@
       <c r="H7" s="0">
         <v>100</v>
       </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J7" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M7" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -321,16 +336,16 @@
       <c r="H8" s="0">
         <v>100</v>
       </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>2022-08-01</t>
-        </is>
-      </c>
-      <c r="J8" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M8" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -362,16 +377,16 @@
       <c r="H9" s="0">
         <v>100</v>
       </c>
-      <c r="I9" s="0" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
-      </c>
-      <c r="J9" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M9" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -405,14 +420,14 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J10" s="0">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -446,14 +461,14 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="J11" s="0">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -487,14 +502,14 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J12" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M12" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -528,14 +543,14 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-      <c r="J13" s="0">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -567,16 +582,16 @@
       <c r="H14" s="0">
         <v>100</v>
       </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>2022-04-01</t>
-        </is>
-      </c>
-      <c r="J14" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M14" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -608,16 +623,16 @@
       <c r="H15" s="0">
         <v>100</v>
       </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J15" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M15" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -649,16 +664,16 @@
       <c r="H16" s="0">
         <v>100</v>
       </c>
-      <c r="I16" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J16" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M16" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -690,16 +705,16 @@
       <c r="H17" s="0">
         <v>100</v>
       </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J17" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M17" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -733,14 +748,14 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="J18" s="0">
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M18" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:13">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -774,14 +789,14 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-      <c r="J19" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M19" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -813,16 +828,16 @@
       <c r="H20" s="0">
         <v>100</v>
       </c>
-      <c r="I20" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J20" s="0">
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M20" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:13">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -856,14 +871,14 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-      <c r="J21" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M21" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -897,14 +912,14 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-      <c r="J22" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M22" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -936,16 +951,16 @@
       <c r="H23" s="0">
         <v>100</v>
       </c>
-      <c r="I23" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J23" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M23" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -977,16 +992,16 @@
       <c r="H24" s="0">
         <v>100</v>
       </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J24" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M24" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -1018,16 +1033,16 @@
       <c r="H25" s="0">
         <v>100</v>
       </c>
-      <c r="I25" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J25" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M25" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -1059,16 +1074,16 @@
       <c r="H26" s="0">
         <v>100</v>
       </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J26" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M26" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1102,14 +1117,14 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="J27" s="0">
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M27" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:13">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -1141,16 +1156,16 @@
       <c r="H28" s="0">
         <v>100</v>
       </c>
-      <c r="I28" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J28" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M28" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1184,14 +1199,14 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J29" s="0">
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M29" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:13">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -1223,16 +1238,16 @@
       <c r="H30" s="0">
         <v>100</v>
       </c>
-      <c r="I30" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J30" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M30" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>Admin </t>
@@ -1264,16 +1279,16 @@
       <c r="H31" s="0">
         <v>100</v>
       </c>
-      <c r="I31" s="0" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="J31" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M31" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1307,14 +1322,14 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J32" s="0">
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M32" s="0">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:13">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1348,14 +1363,14 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="J33" s="0">
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M33" s="0">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:13">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1389,14 +1404,14 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="J34" s="0">
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="M34" s="0">
         <v>1234</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:13">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1430,14 +1445,14 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J35" s="0">
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="M35" s="0">
         <v>12312</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:13">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1476,14 +1491,14 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J36" s="0">
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="M36" s="0">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:13">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1522,14 +1537,14 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J37" s="0">
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="M37" s="0">
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:13">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>Secretaría de Finanzas</t>
@@ -1568,10 +1583,10 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="J38" s="0">
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="M38" s="0">
         <v>1500</v>
       </c>
     </row>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -27,7 +27,7 @@
       <i/>
     </font>
     <font>
-      <sz val="45"/>
+      <sz val="25"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -83,7 +83,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Organismo</t>
@@ -94,7 +94,7 @@
           <t>Secretaría de Finanzas</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AVANCE DE INDICADORES (SF)</t>
         </is>
@@ -1491,30 +1491,30 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="C37" s="0">
-        <v>5529</v>
+        <v>5988</v>
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Prueba</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>(A*B)/C</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>Semanal</t>
+          <t>Bimestral</t>
         </is>
       </c>
       <c r="H37" s="0">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="J37" s="0">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1537,41 +1537,225 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C38" s="0">
+        <v>5988</v>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="H38" s="0">
+        <v>100</v>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="J38" s="0">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="C39" s="0">
+        <v>5529</v>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>(A*B)/C</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H39" s="0">
+        <v>100</v>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J39" s="0">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C40" s="0">
+        <v>5988</v>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="H40" s="0">
+        <v>100</v>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="J40" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C41" s="0">
+        <v>5988</v>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="H41" s="0">
+        <v>100</v>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="J41" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="C38" s="0">
+      <c r="C42" s="0">
         <v>5999</v>
       </c>
-      <c r="D38" s="0" t="inlineStr">
+      <c r="D42" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E38" s="0" t="inlineStr">
+      <c r="E42" s="0" t="inlineStr">
         <is>
           <t>Indicador Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="F38" s="0" t="inlineStr">
+      <c r="F42" s="0" t="inlineStr">
         <is>
           <t>(A+B)/C</t>
         </is>
       </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H38" s="0">
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H42" s="0">
         <v>5000</v>
       </c>
-      <c r="I38" s="0" t="inlineStr">
+      <c r="I42" s="0" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="J38" s="0">
+      <c r="J42" s="0">
         <v>1500</v>
       </c>
     </row>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -37,6 +37,11 @@
       <name val="Calibri"/>
       <b/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -68,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -195,14 +203,15 @@
       <c r="C5" s="0">
         <v>6001</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>301</t>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Indicador prueba 001</t>
+          <t>Entrega de apoyos escolares </t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
@@ -218,11 +227,11 @@
       <c r="H5" s="0">
         <v>10000</v>
       </c>
-      <c r="I5" s="0">
-        <v>1500</v>
+      <c r="L5" s="0">
+        <v>150</v>
       </c>
       <c r="M5" s="1">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -239,14 +248,15 @@
       <c r="C6" s="0">
         <v>6001</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>301</t>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>Indicador prueba 001</t>
+          <t>Entrega de apoyos escolares </t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
@@ -262,11 +272,11 @@
       <c r="H6" s="0">
         <v>10000</v>
       </c>
-      <c r="J6" s="0">
-        <v>1200</v>
+      <c r="I6" s="0">
+        <v>6</v>
       </c>
       <c r="M6" s="1">
-        <v>1200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -283,14 +293,15 @@
       <c r="C7" s="0">
         <v>6001</v>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>301</t>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Indicador prueba 001</t>
+          <t>Entrega de apoyos escolares </t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
@@ -314,21 +325,111 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="I8" s="1">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C8" s="0">
+        <v>6001</v>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares </t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H8" s="0">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="0">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="C9" s="0">
+        <v>6001</v>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>Entrega de apoyos escolares </t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H9" s="0">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="0">
         <v>1500</v>
       </c>
-      <c r="J8" s="1">
+      <c r="M9" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" s="1">
+        <v>1506</v>
+      </c>
+      <c r="J10" s="1">
         <v>1200</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
-        <v>900</v>
-      </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>Total Meta: 3600</t>
+      <c r="L10" s="1">
+        <v>1050</v>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>Total Meta: 3756</t>
         </is>
       </c>
     </row>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -33,15 +33,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <b/>
       <i/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,10 +77,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -108,326 +108,326 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>Denominación del Programa</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="inlineStr">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Fecha de elaboración:</t>
         </is>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Dependencia</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>06-20-2022 11:30:07 am</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Nombre del indicador</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Método de Cálculo</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Frecuencia Medición</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>Meta Programada</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Trimestre 1</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr">
         <is>
           <t>Trimestre 2</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Trimestre 3</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Trimestre 4</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Meta Alcanzada</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+    <row r="7" spans="1:12">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="C5" s="0">
+      <c r="B7" s="0">
         <v>6001</v>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Entrega de apoyos escolares </t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="H5" s="0">
+      <c r="G7" s="0">
         <v>10000</v>
       </c>
-      <c r="L5" s="0">
+      <c r="K7" s="0">
         <v>150</v>
       </c>
-      <c r="M5" s="1">
+      <c r="L7" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
+    <row r="8" spans="1:12">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="C6" s="0">
+      <c r="B8" s="0">
         <v>6001</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Entrega de apoyos escolares </t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="H6" s="0">
+      <c r="G8" s="0">
         <v>10000</v>
       </c>
-      <c r="I6" s="0">
+      <c r="H8" s="0">
         <v>6</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
+    <row r="9" spans="1:12">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="C7" s="0">
+      <c r="B9" s="0">
         <v>6001</v>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Entrega de apoyos escolares </t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="H7" s="0">
+      <c r="G9" s="0">
         <v>10000</v>
       </c>
-      <c r="L7" s="0">
+      <c r="K9" s="0">
         <v>900</v>
       </c>
-      <c r="M7" s="1">
+      <c r="L9" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
+    <row r="10" spans="1:12">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="C8" s="0">
+      <c r="B10" s="0">
         <v>6001</v>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Entrega de apoyos escolares </t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="H8" s="0">
+      <c r="G10" s="0">
         <v>10000</v>
       </c>
-      <c r="J8" s="0">
+      <c r="I10" s="0">
         <v>1200</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L10" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
+    <row r="11" spans="1:12">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="C9" s="0">
+      <c r="B11" s="0">
         <v>6001</v>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Entrega de apoyos escolares </t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Mensual</t>
         </is>
       </c>
-      <c r="H9" s="0">
+      <c r="G11" s="0">
         <v>10000</v>
       </c>
-      <c r="I9" s="0">
+      <c r="H11" s="0">
         <v>1500</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L11" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="I10" s="1">
+    <row r="12" spans="1:13">
+      <c r="I12" s="1">
         <v>1506</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J12" s="1">
         <v>1200</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L12" s="1">
         <v>1050</v>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M12" s="1" t="inlineStr">
         <is>
           <t>Total Meta: 3756</t>
         </is>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -127,11 +127,6 @@
           <t>ProgramaPresupuestario</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -153,7 +148,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>06-23-2022 05:10:20 pm</t>
+          <t>07-04-2022 12:26:04 pm</t>
         </is>
       </c>
     </row>
@@ -222,25 +217,25 @@
     <row r="7" spans="1:12">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B7" s="0">
-        <v>6002</v>
+        <v>4810</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Apoyos escolares (prueba)</t>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>A/B</t>
+          <t>A+B</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
@@ -252,67 +247,933 @@
         <v>100</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G8" s="0">
+        <v>80</v>
+      </c>
+      <c r="H8" s="0">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B9" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G9" s="0">
+        <v>80</v>
+      </c>
+      <c r="H9" s="0">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G10" s="0">
+        <v>80</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B11" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G11" s="0">
+        <v>80</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G12" s="0">
+        <v>80</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B13" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G13" s="0">
+        <v>80</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B14" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G14" s="0">
+        <v>80</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B15" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G15" s="0">
+        <v>80</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B8" s="0">
-        <v>6003</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Apoyos escolares 2</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="B16" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>A+B</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="G8" s="0">
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G16" s="0">
+        <v>100</v>
+      </c>
+      <c r="I16" s="0">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B17" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G17" s="0">
+        <v>70</v>
+      </c>
+      <c r="H17" s="0">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G18" s="0">
+        <v>70</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B19" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G19" s="0">
+        <v>70</v>
+      </c>
+      <c r="H19" s="0">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B20" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G20" s="0">
+        <v>70</v>
+      </c>
+      <c r="H20" s="0">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B21" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G21" s="0">
+        <v>80</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B22" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G22" s="0">
+        <v>80</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B23" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G23" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="0">
         <v>10000</v>
       </c>
-      <c r="H8" s="0">
+      <c r="L23" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B24" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G24" s="0">
+        <v>100</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G25" s="0">
+        <v>100</v>
+      </c>
+      <c r="H25" s="0">
+        <v>10000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B26" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G26" s="0">
         <v>1000</v>
       </c>
-      <c r="L8" s="1">
+      <c r="H26" s="0">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B27" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G27" s="0">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="I9" s="1">
-        <v>1000.1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>Total Meta: 1000.1</t>
+      <c r="H27" s="0">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B28" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G28" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="0">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B29" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G29" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="0">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B30" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G30" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="0">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B31" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G31" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="0">
+        <v>135</v>
+      </c>
+      <c r="L31" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B32" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G32" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="0">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="I33" s="1">
+        <v>20426</v>
+      </c>
+      <c r="J33" s="1">
+        <v>20</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>Total Meta: 20446</t>
         </is>
       </c>
     </row>

--- a/public/reportes/indicadores.xlsx
+++ b/public/reportes/indicadores.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -28,11 +28,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -73,14 +68,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -97,11 +89,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
           <t>AVANCE DE INDICADORES (SF)</t>
@@ -114,10 +101,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Salud y Vida Digna</t>
         </is>
       </c>
     </row>
@@ -127,6 +113,11 @@
           <t>ProgramaPresupuestario</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Gobierno Digital</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -148,67 +139,67 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>07-04-2022 12:26:04 pm</t>
+          <t>07-06-2022 08:17:48 pm</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Nombre del indicador</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Método de Cálculo</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Frecuencia Medición</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>Meta Programada</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>Trimestre 1</t>
         </is>
       </c>
-      <c r="I6" s="4" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Trimestre 2</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Trimestre 3</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>Trimestre 4</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Meta Alcanzada</t>
         </is>
@@ -272,6 +263,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -306,6 +302,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -340,6 +341,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -374,6 +380,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -408,6 +419,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -442,6 +458,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -476,6 +497,11 @@
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
@@ -494,35 +520,40 @@
     <row r="15" spans="1:12">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B15" s="0">
-        <v>5512</v>
+        <v>5363</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="G15" s="0">
-        <v>80</v>
+        <v>222841000</v>
       </c>
       <c r="H15" s="0">
-        <v>0</v>
+        <v>26061165</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>26061165</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -532,7 +563,7 @@
         </is>
       </c>
       <c r="B16" s="0">
-        <v>4810</v>
+        <v>5366</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
@@ -541,12 +572,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
@@ -555,13 +581,13 @@
         </is>
       </c>
       <c r="G16" s="0">
-        <v>100</v>
-      </c>
-      <c r="I16" s="0">
-        <v>20</v>
+        <v>785330</v>
+      </c>
+      <c r="H16" s="0">
+        <v>72953</v>
       </c>
       <c r="L16" s="1">
-        <v>20</v>
+        <v>72953</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -571,16 +597,16 @@
         </is>
       </c>
       <c r="B17" s="0">
-        <v>5612</v>
+        <v>5366</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
@@ -589,13 +615,13 @@
         </is>
       </c>
       <c r="G17" s="0">
-        <v>70</v>
+        <v>785330</v>
       </c>
       <c r="H17" s="0">
-        <v>25</v>
+        <v>67773</v>
       </c>
       <c r="L17" s="1">
-        <v>25</v>
+        <v>67773</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -605,16 +631,16 @@
         </is>
       </c>
       <c r="B18" s="0">
-        <v>5612</v>
+        <v>5366</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
@@ -623,13 +649,13 @@
         </is>
       </c>
       <c r="G18" s="0">
-        <v>70</v>
+        <v>785330</v>
       </c>
       <c r="H18" s="0">
-        <v>0</v>
+        <v>90805</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>90805</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -639,16 +665,16 @@
         </is>
       </c>
       <c r="B19" s="0">
-        <v>5612</v>
+        <v>5366</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
@@ -657,32 +683,37 @@
         </is>
       </c>
       <c r="G19" s="0">
-        <v>70</v>
-      </c>
-      <c r="H19" s="0">
-        <v>35</v>
+        <v>785330</v>
+      </c>
+      <c r="I19" s="0">
+        <v>92620</v>
       </c>
       <c r="L19" s="1">
-        <v>35</v>
+        <v>92620</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B20" s="0">
-        <v>5612</v>
+        <v>5367</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Gestión comercial con aerolíneas.</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
@@ -691,105 +722,115 @@
         </is>
       </c>
       <c r="G20" s="0">
-        <v>70</v>
+        <v>48046</v>
       </c>
       <c r="H20" s="0">
-        <v>35</v>
+        <v>3564</v>
       </c>
       <c r="L20" s="1">
-        <v>35</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B21" s="0">
-        <v>5512</v>
+        <v>5367</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Gestión comercial con aerolíneas.</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="G21" s="0">
-        <v>80</v>
+        <v>48046</v>
       </c>
       <c r="H21" s="0">
-        <v>0</v>
+        <v>4255</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Fin</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B22" s="0">
-        <v>5512</v>
+        <v>5367</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>Gestión comercial con aerolíneas.</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Mensual</t>
         </is>
       </c>
       <c r="G22" s="0">
-        <v>80</v>
+        <v>48046</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>4871</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B23" s="0">
-        <v>6161</v>
+        <v>5366</v>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A/B</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
@@ -798,13 +839,13 @@
         </is>
       </c>
       <c r="G23" s="0">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H23" s="0">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -814,7 +855,7 @@
         </is>
       </c>
       <c r="B24" s="0">
-        <v>4810</v>
+        <v>5366</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
@@ -823,12 +864,12 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A/B</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
@@ -837,7 +878,7 @@
         </is>
       </c>
       <c r="G24" s="0">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -853,7 +894,7 @@
         </is>
       </c>
       <c r="B25" s="0">
-        <v>4810</v>
+        <v>5366</v>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
@@ -862,12 +903,12 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A/B</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
@@ -876,37 +917,37 @@
         </is>
       </c>
       <c r="G25" s="0">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>6161</v>
+        <v>5366</v>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>A+B</t>
+          <t>A/B</t>
         </is>
       </c>
       <c r="F26" s="0" t="inlineStr">
@@ -915,13 +956,13 @@
         </is>
       </c>
       <c r="G26" s="0">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="0">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -931,16 +972,16 @@
         </is>
       </c>
       <c r="B27" s="0">
-        <v>6161</v>
+        <v>5363</v>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -954,13 +995,13 @@
         </is>
       </c>
       <c r="G27" s="0">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="0">
-        <v>2</v>
+        <v>222841000</v>
+      </c>
+      <c r="I27" s="0">
+        <v>27433358</v>
       </c>
       <c r="L27" s="1">
-        <v>2</v>
+        <v>27433358</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -970,16 +1011,16 @@
         </is>
       </c>
       <c r="B28" s="0">
-        <v>6161</v>
+        <v>5367</v>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Gestión comercial con aerolíneas.</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -993,13 +1034,13 @@
         </is>
       </c>
       <c r="G28" s="0">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="0">
-        <v>2</v>
+        <v>48046</v>
+      </c>
+      <c r="I28" s="0">
+        <v>3900</v>
       </c>
       <c r="L28" s="1">
-        <v>2</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1009,16 +1050,16 @@
         </is>
       </c>
       <c r="B29" s="0">
-        <v>6161</v>
+        <v>5363</v>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1032,13 +1073,13 @@
         </is>
       </c>
       <c r="G29" s="0">
-        <v>1000</v>
+        <v>222841000</v>
       </c>
       <c r="H29" s="0">
-        <v>2</v>
+        <v>22790412</v>
       </c>
       <c r="L29" s="1">
-        <v>2</v>
+        <v>22790412</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1048,16 +1089,16 @@
         </is>
       </c>
       <c r="B30" s="0">
-        <v>6161</v>
+        <v>5363</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -1071,109 +1112,1078 @@
         </is>
       </c>
       <c r="G30" s="0">
-        <v>1000</v>
+        <v>222841000</v>
       </c>
       <c r="H30" s="0">
-        <v>24</v>
+        <v>20114832</v>
       </c>
       <c r="L30" s="1">
-        <v>24</v>
+        <v>20114832</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B31" s="0">
-        <v>6161</v>
+        <v>5368</v>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>Actividad Karen POA</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>A+B</t>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Trimestral</t>
         </is>
       </c>
       <c r="G31" s="0">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="0" t="inlineStr">
         <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B32" s="0">
+        <v>5368</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G32" s="0">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>5368</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G33" s="0">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B34" s="0">
+        <v>5368</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G34" s="0">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B35" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G35" s="0">
+        <v>80</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B36" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G36" s="0">
+        <v>100</v>
+      </c>
+      <c r="I36" s="0">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B37" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G37" s="0">
+        <v>70</v>
+      </c>
+      <c r="H37" s="0">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B38" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G38" s="0">
+        <v>70</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G39" s="0">
+        <v>70</v>
+      </c>
+      <c r="H39" s="0">
+        <v>35</v>
+      </c>
+      <c r="L39" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B40" s="0">
+        <v>5612</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G40" s="0">
+        <v>70</v>
+      </c>
+      <c r="H40" s="0">
+        <v>35</v>
+      </c>
+      <c r="L40" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B41" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G41" s="0">
+        <v>80</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B32" s="0">
+      <c r="B42" s="0">
+        <v>5363</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>6.2 Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Programa de mejora de ingresos aeronáuticos</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G42" s="0">
+        <v>222841000</v>
+      </c>
+      <c r="I42" s="0">
+        <v>24500227</v>
+      </c>
+      <c r="L42" s="1">
+        <v>24500227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B43" s="0">
+        <v>5368</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>Programa de Trabajo conjunto con entidades para implementación de radar en el AIQ.</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G43" s="0">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B44" s="0">
+        <v>5366</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>A/B</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G44" s="0">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B45" s="0">
         <v>6161</v>
       </c>
-      <c r="C32" s="0" t="inlineStr">
+      <c r="C45" s="0" t="inlineStr">
         <is>
           <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
         </is>
       </c>
-      <c r="D32" s="0" t="inlineStr">
+      <c r="D45" s="0" t="inlineStr">
         <is>
           <t>Actividad Karen POA</t>
         </is>
       </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="E45" s="0" t="inlineStr">
         <is>
           <t>A+B</t>
         </is>
       </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="G32" s="0">
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G45" s="0">
         <v>1000</v>
       </c>
-      <c r="H32" s="0">
+      <c r="H45" s="0">
+        <v>10000</v>
+      </c>
+      <c r="L45" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B46" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G46" s="0">
+        <v>100</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B47" s="0">
+        <v>4810</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>5.1.2.- Desarrollar un programa social de cobertura de servicios de electrificación básicos que cubra a todo el estado.</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G47" s="0">
+        <v>100</v>
+      </c>
+      <c r="H47" s="0">
+        <v>10000</v>
+      </c>
+      <c r="L47" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B48" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G48" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="0">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B49" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G49" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="0">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B50" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G50" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="0">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B51" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G51" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="0">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B52" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G52" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="0">
+        <v>24</v>
+      </c>
+      <c r="L52" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B53" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G53" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="0">
+        <v>135</v>
+      </c>
+      <c r="L53" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B54" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G54" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="0">
         <v>3</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L54" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="I33" s="1">
-        <v>20426</v>
-      </c>
-      <c r="J33" s="1">
-        <v>20</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="inlineStr">
-        <is>
-          <t>Total Meta: 20446</t>
+    <row r="55" spans="1:12">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B55" s="0">
+        <v>6161</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>1.1.1.2 Realizar jornadas itinerantes de salud y atención médica.</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>Actividad Karen POA</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>A+B</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G55" s="0">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B56" s="0">
+        <v>5366</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>Estudio de fuga de pasajeros para evaluar rutas potenciales para aviación comercial de pasajeros.</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>A/B</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="G56" s="0">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0">
+        <v>5000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B57" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G57" s="0">
+        <v>80</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B58" s="0">
+        <v>5512</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>Agenda de Gobierno Digital</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="G58" s="0">
+        <v>80</v>
+      </c>
+      <c r="H58" s="0">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="I59" s="1">
+        <v>69232066</v>
+      </c>
+      <c r="J59" s="1">
+        <v>52035125</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="inlineStr">
+        <is>
+          <t>Total Meta: 121267191</t>
         </is>
       </c>
     </row>
